--- a/KẾ TOÁN - THÁI HẰNG/New Microsoft Excel Worksheet.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/New Microsoft Excel Worksheet.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>1CX45</t>
   </si>
@@ -107,6 +108,81 @@
   </si>
   <si>
     <t>Số lương (thùng)</t>
+  </si>
+  <si>
+    <t>Kho thực tế CH</t>
+  </si>
+  <si>
+    <t>Kho thực tế CT</t>
+  </si>
+  <si>
+    <t>Lào cai</t>
+  </si>
+  <si>
+    <t>12th +21</t>
+  </si>
+  <si>
+    <t>8th +20</t>
+  </si>
+  <si>
+    <t>30th+10</t>
+  </si>
+  <si>
+    <t>3th</t>
+  </si>
+  <si>
+    <t>24th+5</t>
+  </si>
+  <si>
+    <t>1th+4</t>
+  </si>
+  <si>
+    <t>8th+8</t>
+  </si>
+  <si>
+    <t>10th+23</t>
+  </si>
+  <si>
+    <t>20th+9</t>
+  </si>
+  <si>
+    <t>30th + 2</t>
+  </si>
+  <si>
+    <t>30th</t>
+  </si>
+  <si>
+    <t>Kho thực tế cửa hàng</t>
+  </si>
+  <si>
+    <t>Kho thực tế công ty</t>
+  </si>
+  <si>
+    <t>Tổng tồn kho</t>
+  </si>
+  <si>
+    <t>Dự kiến nhập</t>
+  </si>
+  <si>
+    <t>20th</t>
+  </si>
+  <si>
+    <t>thùng</t>
+  </si>
+  <si>
+    <t>hộp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cả tồn kho và nhập </t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Đơn gias</t>
+  </si>
+  <si>
+    <t>Sau đơn lào cai công ty còn</t>
   </si>
 </sst>
 </file>
@@ -146,7 +222,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -358,36 +440,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,24 +497,73 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1341,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,547 +1502,1497 @@
     <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="17" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="J2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="21">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="18">
         <v>10</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>24</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <f>B4*C4</f>
         <v>240</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="20">
         <v>225000</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <f>D4*E4</f>
         <v>54000000</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="21">
+        <v>21</v>
+      </c>
+      <c r="H4" s="21">
+        <v>48</v>
+      </c>
+      <c r="I4" s="16">
         <v>2</v>
       </c>
-      <c r="H4" s="32">
-        <f>B4+G4</f>
+      <c r="J4" s="26">
+        <f>B4+I4</f>
         <v>12</v>
       </c>
-      <c r="I4" s="32">
-        <f>H4*C4</f>
+      <c r="K4" s="26">
+        <f>J4*C4</f>
         <v>288</v>
       </c>
-      <c r="J4" s="33">
-        <f>I4*E4</f>
+      <c r="L4" s="27">
+        <f>K4*E4</f>
         <v>64800000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21">
-        <v>25</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="B5" s="18">
+        <v>30</v>
+      </c>
+      <c r="C5" s="19">
         <v>12</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <f t="shared" ref="D5:D16" si="0">B5*C5</f>
-        <v>300</v>
-      </c>
-      <c r="E5" s="23">
+        <v>360</v>
+      </c>
+      <c r="E5" s="20">
         <v>455000</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <f t="shared" ref="F5:F16" si="1">D5*E5</f>
-        <v>136500000</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="32">
-        <f t="shared" ref="H5:H16" si="2">B5+G5</f>
-        <v>25</v>
-      </c>
-      <c r="I5" s="32">
-        <f t="shared" ref="I5:I16" si="3">H5*C5</f>
-        <v>300</v>
-      </c>
-      <c r="J5" s="33">
-        <f t="shared" ref="J5:J16" si="4">I5*E5</f>
-        <v>136500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+        <v>163800000</v>
+      </c>
+      <c r="G5" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22">
+      <c r="H5" s="21"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="26">
+        <f t="shared" ref="J5:J16" si="2">B5+I5</f>
+        <v>30</v>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" ref="K5:K16" si="3">J5*C5</f>
+        <v>360</v>
+      </c>
+      <c r="L5" s="27">
+        <f t="shared" ref="L5:L16" si="4">K5*E5</f>
+        <v>163800000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19">
         <v>24</v>
       </c>
-      <c r="D6" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="23">
+      <c r="D6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
         <v>235000</v>
       </c>
-      <c r="F6" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>20</v>
+      </c>
+      <c r="H6" s="21">
+        <f>8*24</f>
+        <v>192</v>
+      </c>
+      <c r="I6" s="16">
         <v>8</v>
       </c>
-      <c r="H6" s="32">
+      <c r="J6" s="26">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I6" s="32">
+      <c r="K6" s="26">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="J6" s="33">
+      <c r="L6" s="27">
         <f t="shared" si="4"/>
         <v>45120000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="21">
-        <v>25</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="18">
+        <v>30</v>
+      </c>
+      <c r="C7" s="19">
         <v>12</v>
       </c>
-      <c r="D7" s="22">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="E7" s="23">
+      <c r="D7" s="19">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="E7" s="20">
         <v>465000</v>
       </c>
-      <c r="F7" s="24">
-        <f t="shared" si="1"/>
-        <v>139500000</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="32">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="I7" s="32">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="J7" s="33">
-        <f t="shared" si="4"/>
-        <v>139500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="F7" s="21">
+        <f t="shared" si="1"/>
+        <v>167400000</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K7" s="26">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="L7" s="27">
+        <f t="shared" si="4"/>
+        <v>167400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19">
         <v>24</v>
       </c>
-      <c r="D8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="23">
+      <c r="D8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
         <v>245000</v>
       </c>
-      <c r="F8" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="F8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>15</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>12</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="20">
         <v>475000</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="21">
         <f t="shared" si="1"/>
         <v>85500000</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="21">
+        <v>22</v>
+      </c>
+      <c r="H9" s="21">
+        <f>14*12</f>
+        <v>168</v>
+      </c>
+      <c r="I9" s="16">
         <v>15</v>
       </c>
-      <c r="H9" s="32">
+      <c r="J9" s="26">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="I9" s="32">
+      <c r="K9" s="26">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="J9" s="33">
+      <c r="L9" s="27">
         <f t="shared" si="4"/>
         <v>171000000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19">
         <v>24</v>
       </c>
-      <c r="D10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
         <v>255000</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="F10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21">
+        <v>24</v>
+      </c>
+      <c r="H10" s="21">
+        <v>48</v>
+      </c>
+      <c r="I10" s="16">
         <v>3</v>
       </c>
-      <c r="H10" s="32">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I10" s="32">
+      <c r="K10" s="26">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="J10" s="33">
+      <c r="L10" s="27">
         <f t="shared" si="4"/>
         <v>18360000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>15</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>12</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="20">
         <v>485000</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="21">
         <f t="shared" si="1"/>
         <v>87300000</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="21">
+        <v>17</v>
+      </c>
+      <c r="H11" s="21">
+        <f>8*12</f>
+        <v>96</v>
+      </c>
+      <c r="I11" s="16">
         <v>5</v>
       </c>
-      <c r="H11" s="32">
+      <c r="J11" s="26">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I11" s="32">
+      <c r="K11" s="26">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="J11" s="33">
+      <c r="L11" s="27">
         <f t="shared" si="4"/>
         <v>116400000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19">
         <v>24</v>
       </c>
-      <c r="D12" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="23">
+      <c r="D12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
         <v>255000</v>
       </c>
-      <c r="F12" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
+      <c r="F12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21">
+        <v>24</v>
+      </c>
+      <c r="I12" s="16">
         <v>1</v>
       </c>
-      <c r="H12" s="32">
+      <c r="J12" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="I12" s="32">
+      <c r="K12" s="26">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="J12" s="33">
+      <c r="L12" s="27">
         <f t="shared" si="4"/>
         <v>6120000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21">
-        <v>15</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="B13" s="18">
+        <v>20</v>
+      </c>
+      <c r="C13" s="19">
         <v>12</v>
       </c>
-      <c r="D13" s="22">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="E13" s="23">
+      <c r="D13" s="19">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="E13" s="20">
         <v>485000</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" si="1"/>
-        <v>87300000</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="32">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I13" s="32">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="J13" s="33">
-        <f t="shared" si="4"/>
-        <v>87300000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="F13" s="21">
+        <f t="shared" si="1"/>
+        <v>116400000</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="26">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="26">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="L13" s="27">
+        <f t="shared" si="4"/>
+        <v>116400000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="20">
+        <v>455000</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <f>64+28</f>
+        <v>92</v>
+      </c>
+      <c r="H14" s="21">
+        <v>12</v>
+      </c>
+      <c r="I14" s="16">
+        <v>5</v>
+      </c>
+      <c r="J14" s="26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K14" s="26">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="L14" s="27">
+        <f t="shared" si="4"/>
+        <v>27300000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19">
+        <v>24</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
+        <v>550000</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>191</v>
+      </c>
+      <c r="H15" s="21">
+        <f>3*24</f>
+        <v>72</v>
+      </c>
+      <c r="I15" s="16">
+        <v>8</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="L15" s="27">
+        <f t="shared" si="4"/>
+        <v>105600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22">
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="19">
         <v>12</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D16" s="19">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E16" s="20">
         <v>455000</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F16" s="21">
         <f t="shared" si="1"/>
         <v>54600000</v>
       </c>
-      <c r="G14" s="16">
-        <v>5</v>
-      </c>
-      <c r="H14" s="32">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="I14" s="32">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="J14" s="33">
-        <f t="shared" si="4"/>
-        <v>81900000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22">
-        <v>24</v>
-      </c>
-      <c r="D15" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>550000</v>
-      </c>
-      <c r="F15" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>8</v>
-      </c>
-      <c r="H15" s="32">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I15" s="32">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="J15" s="33">
-        <f t="shared" si="4"/>
-        <v>105600000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="G16" s="21">
+        <v>21</v>
+      </c>
+      <c r="H16" s="21">
+        <f>9*12</f>
+        <v>108</v>
+      </c>
+      <c r="I16" s="16">
         <v>10</v>
       </c>
-      <c r="B16" s="21">
-        <v>10</v>
-      </c>
-      <c r="C16" s="22">
-        <v>12</v>
-      </c>
-      <c r="D16" s="22">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E16" s="23">
-        <v>455000</v>
-      </c>
-      <c r="F16" s="24">
-        <f t="shared" si="1"/>
-        <v>54600000</v>
-      </c>
-      <c r="G16" s="16">
-        <v>10</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="J16" s="26">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I16" s="32">
+      <c r="K16" s="26">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="J16" s="33">
+      <c r="L16" s="27">
         <f t="shared" si="4"/>
         <v>109200000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22">
         <f>SUM(B4:B16)</f>
-        <v>125</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26">
+        <v>130</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23">
         <f>SUM(F4:F16)</f>
-        <v>699300000</v>
-      </c>
-      <c r="G17" s="14">
-        <f>SUM(G4:G16)</f>
+        <v>729000000</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="14">
+        <f>SUM(I4:I16)</f>
         <v>57</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35">
-        <f>SUM(J4:J16)</f>
-        <v>1081800000</v>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29">
+        <f>SUM(L4:L16)</f>
+        <v>1111500000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0" style="57" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="57" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="57" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="57" customWidth="1"/>
+    <col min="9" max="9" width="6" style="57" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="57" customWidth="1"/>
+    <col min="12" max="12" width="7" style="57" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="57" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="57" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52"/>
+      <c r="C6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="64"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="52"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="41">
+        <v>21</v>
+      </c>
+      <c r="D8" s="41">
+        <v>48</v>
+      </c>
+      <c r="E8" s="41">
+        <f>C8+D8</f>
+        <v>69</v>
+      </c>
+      <c r="F8" s="49">
+        <f>10*24</f>
+        <v>240</v>
+      </c>
+      <c r="G8" s="50">
+        <v>225000</v>
+      </c>
+      <c r="H8" s="51">
+        <f>F8*G8</f>
+        <v>54000000</v>
+      </c>
+      <c r="I8" s="42">
+        <f>E8+F8</f>
+        <v>309</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="47">
+        <v>12</v>
+      </c>
+      <c r="L8" s="47">
+        <f>K8*24</f>
+        <v>288</v>
+      </c>
+      <c r="M8" s="46">
+        <v>225000</v>
+      </c>
+      <c r="N8" s="47">
+        <f>L8*M8</f>
+        <v>64800000</v>
+      </c>
+      <c r="O8" s="65">
+        <f>I8-L8</f>
+        <v>21</v>
+      </c>
+      <c r="P8" s="20">
+        <v>225000</v>
+      </c>
+      <c r="Q8" s="66">
+        <f>O8*P8</f>
+        <v>4725000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="41">
+        <v>2</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41">
+        <f t="shared" ref="E9:E20" si="0">C9+D9</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="49">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
+      <c r="G9" s="50">
+        <v>455000</v>
+      </c>
+      <c r="H9" s="51">
+        <f t="shared" ref="H9:H20" si="1">F9*G9</f>
+        <v>163800000</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" ref="I9:I20" si="2">E9+F9</f>
+        <v>362</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="47">
+        <v>26</v>
+      </c>
+      <c r="L9" s="47">
+        <f>K9*12</f>
+        <v>312</v>
+      </c>
+      <c r="M9" s="46">
+        <v>455000</v>
+      </c>
+      <c r="N9" s="47">
+        <f t="shared" ref="N9:N20" si="3">L9*M9</f>
+        <v>141960000</v>
+      </c>
+      <c r="O9" s="65">
+        <f t="shared" ref="O9:O20" si="4">I9-L9</f>
+        <v>50</v>
+      </c>
+      <c r="P9" s="20">
+        <v>455000</v>
+      </c>
+      <c r="Q9" s="66">
+        <f t="shared" ref="Q9:Q20" si="5">O9*P9</f>
+        <v>22750000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="41">
+        <v>20</v>
+      </c>
+      <c r="D10" s="41">
+        <f>8*24</f>
+        <v>192</v>
+      </c>
+      <c r="E10" s="41">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50">
+        <v>235000</v>
+      </c>
+      <c r="H10" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="47">
+        <v>8</v>
+      </c>
+      <c r="L10" s="47">
+        <f>K10*24</f>
+        <v>192</v>
+      </c>
+      <c r="M10" s="46">
+        <v>235000</v>
+      </c>
+      <c r="N10" s="47">
+        <f t="shared" si="3"/>
+        <v>45120000</v>
+      </c>
+      <c r="O10" s="65">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P10" s="20">
+        <v>235000</v>
+      </c>
+      <c r="Q10" s="66">
+        <f t="shared" si="5"/>
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <f>30*12</f>
+        <v>360</v>
+      </c>
+      <c r="G11" s="50">
+        <v>465000</v>
+      </c>
+      <c r="H11" s="51">
+        <f t="shared" si="1"/>
+        <v>167400000</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="47">
+        <v>26</v>
+      </c>
+      <c r="L11" s="47">
+        <f>K11*12</f>
+        <v>312</v>
+      </c>
+      <c r="M11" s="46">
+        <v>465000</v>
+      </c>
+      <c r="N11" s="47">
+        <f t="shared" si="3"/>
+        <v>145080000</v>
+      </c>
+      <c r="O11" s="65">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="P11" s="20">
+        <v>465000</v>
+      </c>
+      <c r="Q11" s="66">
+        <f t="shared" si="5"/>
+        <v>22320000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50">
+        <v>245000</v>
+      </c>
+      <c r="H12" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46">
+        <v>245000</v>
+      </c>
+      <c r="N12" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>245000</v>
+      </c>
+      <c r="Q12" s="66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="41">
+        <v>22</v>
+      </c>
+      <c r="D13" s="41">
+        <f>14*12</f>
+        <v>168</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F13" s="49">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="G13" s="50">
+        <v>475000</v>
+      </c>
+      <c r="H13" s="51">
+        <f t="shared" si="1"/>
+        <v>85500000</v>
+      </c>
+      <c r="I13" s="42">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="47">
+        <v>27</v>
+      </c>
+      <c r="L13" s="47">
+        <f>K13*12</f>
+        <v>324</v>
+      </c>
+      <c r="M13" s="46">
+        <v>475000</v>
+      </c>
+      <c r="N13" s="47">
+        <f t="shared" si="3"/>
+        <v>153900000</v>
+      </c>
+      <c r="O13" s="65">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="P13" s="20">
+        <v>475000</v>
+      </c>
+      <c r="Q13" s="66">
+        <f t="shared" si="5"/>
+        <v>21850000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="41">
+        <v>24</v>
+      </c>
+      <c r="D14" s="41">
+        <v>48</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50">
+        <v>255000</v>
+      </c>
+      <c r="H14" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="47">
+        <v>3</v>
+      </c>
+      <c r="L14" s="47">
+        <f>K14*24</f>
+        <v>72</v>
+      </c>
+      <c r="M14" s="46">
+        <v>255000</v>
+      </c>
+      <c r="N14" s="47">
+        <f t="shared" si="3"/>
+        <v>18360000</v>
+      </c>
+      <c r="O14" s="65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <v>255000</v>
+      </c>
+      <c r="Q14" s="66">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="41">
+        <v>17</v>
+      </c>
+      <c r="D15" s="41">
+        <f>8*12</f>
+        <v>96</v>
+      </c>
+      <c r="E15" s="41">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F15" s="49">
+        <f>15*12</f>
+        <v>180</v>
+      </c>
+      <c r="G15" s="50">
+        <v>485000</v>
+      </c>
+      <c r="H15" s="51">
+        <f t="shared" si="1"/>
+        <v>87300000</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="47">
+        <v>23</v>
+      </c>
+      <c r="L15" s="47">
+        <f>K15*12</f>
+        <v>276</v>
+      </c>
+      <c r="M15" s="46">
+        <v>485000</v>
+      </c>
+      <c r="N15" s="47">
+        <f t="shared" si="3"/>
+        <v>133860000</v>
+      </c>
+      <c r="O15" s="65">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="P15" s="20">
+        <v>485000</v>
+      </c>
+      <c r="Q15" s="66">
+        <f t="shared" si="5"/>
+        <v>8245000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="41">
+        <v>4</v>
+      </c>
+      <c r="D16" s="41">
+        <v>24</v>
+      </c>
+      <c r="E16" s="41">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50">
+        <v>255000</v>
+      </c>
+      <c r="H16" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46">
+        <v>255000</v>
+      </c>
+      <c r="N16" s="47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="65">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="P16" s="20">
+        <v>255000</v>
+      </c>
+      <c r="Q16" s="66">
+        <f t="shared" si="5"/>
+        <v>7140000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="49">
+        <f>20*12</f>
+        <v>240</v>
+      </c>
+      <c r="G17" s="50">
+        <v>485000</v>
+      </c>
+      <c r="H17" s="51">
+        <f t="shared" si="1"/>
+        <v>116400000</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="47">
+        <v>15</v>
+      </c>
+      <c r="L17" s="47">
+        <f>K17*12</f>
+        <v>180</v>
+      </c>
+      <c r="M17" s="46">
+        <v>485000</v>
+      </c>
+      <c r="N17" s="47">
+        <f t="shared" si="3"/>
+        <v>87300000</v>
+      </c>
+      <c r="O17" s="65">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="P17" s="20">
+        <v>485000</v>
+      </c>
+      <c r="Q17" s="66">
+        <f t="shared" si="5"/>
+        <v>29100000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="41">
+        <f>64+28</f>
+        <v>92</v>
+      </c>
+      <c r="D18" s="41">
+        <v>12</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50">
+        <v>455000</v>
+      </c>
+      <c r="H18" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="42">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="47">
+        <v>7</v>
+      </c>
+      <c r="L18" s="47">
+        <f>K18*12</f>
+        <v>84</v>
+      </c>
+      <c r="M18" s="46">
+        <v>455000</v>
+      </c>
+      <c r="N18" s="47">
+        <f t="shared" si="3"/>
+        <v>38220000</v>
+      </c>
+      <c r="O18" s="65">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="P18" s="20">
+        <v>455000</v>
+      </c>
+      <c r="Q18" s="66">
+        <f t="shared" si="5"/>
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="41">
+        <v>191</v>
+      </c>
+      <c r="D19" s="41">
+        <f>3*24</f>
+        <v>72</v>
+      </c>
+      <c r="E19" s="41">
+        <f t="shared" si="0"/>
+        <v>263</v>
+      </c>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50">
+        <v>550000</v>
+      </c>
+      <c r="H19" s="51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="47">
+        <v>9</v>
+      </c>
+      <c r="L19" s="47">
+        <f>K19*24</f>
+        <v>216</v>
+      </c>
+      <c r="M19" s="46">
+        <v>550000</v>
+      </c>
+      <c r="N19" s="47">
+        <f t="shared" si="3"/>
+        <v>118800000</v>
+      </c>
+      <c r="O19" s="65">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="P19" s="20">
+        <v>550000</v>
+      </c>
+      <c r="Q19" s="66">
+        <f t="shared" si="5"/>
+        <v>25850000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="41">
+        <v>21</v>
+      </c>
+      <c r="D20" s="41">
+        <f>9*12</f>
+        <v>108</v>
+      </c>
+      <c r="E20" s="41">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="F20" s="49">
+        <f>10*12</f>
+        <v>120</v>
+      </c>
+      <c r="G20" s="50">
+        <v>455000</v>
+      </c>
+      <c r="H20" s="51">
+        <f t="shared" si="1"/>
+        <v>54600000</v>
+      </c>
+      <c r="I20" s="42">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="47">
+        <v>19</v>
+      </c>
+      <c r="L20" s="47">
+        <f>K20*12</f>
+        <v>228</v>
+      </c>
+      <c r="M20" s="46">
+        <v>455000</v>
+      </c>
+      <c r="N20" s="47">
+        <f t="shared" si="3"/>
+        <v>103740000</v>
+      </c>
+      <c r="O20" s="65">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="P20" s="20">
+        <v>455000</v>
+      </c>
+      <c r="Q20" s="66">
+        <f t="shared" si="5"/>
+        <v>9555000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="54"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="55">
+        <f>SUM(F8:F20)</f>
+        <v>1680</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56">
+        <f>SUM(H8:H20)</f>
+        <v>729000000</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61">
+        <f>SUM(N8:N20)</f>
+        <v>1051140000</v>
+      </c>
+      <c r="O21" s="67">
+        <f>SUM(O8:O20)</f>
+        <v>378</v>
+      </c>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="67">
+        <f>SUM(Q8:Q20)</f>
+        <v>165335000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.23" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/KẾ TOÁN - THÁI HẰNG/New Microsoft Excel Worksheet.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/New Microsoft Excel Worksheet.xlsx
@@ -402,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -479,33 +479,6 @@
     <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,35 +508,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1509,28 +1510,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="36" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,9 +1551,9 @@
       <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="32"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="56"/>
       <c r="J3" s="24" t="s">
         <v>28</v>
       </c>
@@ -2130,867 +2131,912 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:Q21"/>
+  <dimension ref="B6:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" style="57" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" style="57" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="57" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="57" customWidth="1"/>
-    <col min="9" max="9" width="6" style="57" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="57" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="57" customWidth="1"/>
-    <col min="12" max="12" width="7" style="57" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="57" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="57" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="0" style="46" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="46" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="46" customWidth="1"/>
+    <col min="5" max="6" width="6.140625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="46" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" style="46" customWidth="1"/>
+    <col min="13" max="13" width="7" style="46" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="46" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
-      <c r="C6" s="38" t="s">
+    <row r="6" spans="2:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="62"/>
+      <c r="C6" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="67"/>
+      <c r="L6" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="62" t="s">
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="64"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="52"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="48" t="s">
+      <c r="Q6" s="65"/>
+      <c r="R6" s="66"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="62"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="H7" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="I7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="J7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="K7" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="L7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="N7" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="O7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="P7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="Q7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="41">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="32">
         <v>21</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="32">
         <v>48</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="32">
         <f>C8+D8</f>
         <v>69</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="32">
+        <v>10</v>
+      </c>
+      <c r="G8" s="40">
         <f>10*24</f>
         <v>240</v>
       </c>
-      <c r="G8" s="50">
+      <c r="H8" s="41">
         <v>225000</v>
       </c>
-      <c r="H8" s="51">
-        <f>F8*G8</f>
+      <c r="I8" s="42">
+        <f>G8*H8</f>
         <v>54000000</v>
       </c>
-      <c r="I8" s="42">
-        <f>E8+F8</f>
+      <c r="J8" s="33">
+        <f>E8+G8</f>
         <v>309</v>
       </c>
-      <c r="J8" s="42" t="s">
+      <c r="K8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="47">
+      <c r="L8" s="38">
         <v>12</v>
       </c>
-      <c r="L8" s="47">
-        <f>K8*24</f>
+      <c r="M8" s="38">
+        <f>L8*24</f>
         <v>288</v>
       </c>
-      <c r="M8" s="46">
+      <c r="N8" s="37">
         <v>225000</v>
       </c>
-      <c r="N8" s="47">
-        <f>L8*M8</f>
+      <c r="O8" s="38">
+        <f>M8*N8</f>
         <v>64800000</v>
       </c>
-      <c r="O8" s="65">
-        <f>I8-L8</f>
+      <c r="P8" s="50">
+        <f>J8-M8</f>
         <v>21</v>
       </c>
-      <c r="P8" s="20">
+      <c r="Q8" s="20">
         <v>225000</v>
       </c>
-      <c r="Q8" s="66">
-        <f>O8*P8</f>
+      <c r="R8" s="51">
+        <f>P8*Q8</f>
         <v>4725000</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="32">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32">
         <f t="shared" ref="E9:E20" si="0">C9+D9</f>
         <v>2</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="32">
+        <v>25</v>
+      </c>
+      <c r="G9" s="40">
         <f>30*12</f>
         <v>360</v>
       </c>
-      <c r="G9" s="50">
+      <c r="H9" s="41">
         <v>455000</v>
       </c>
-      <c r="H9" s="51">
-        <f t="shared" ref="H9:H20" si="1">F9*G9</f>
+      <c r="I9" s="42">
+        <f t="shared" ref="I9:I20" si="1">G9*H9</f>
         <v>163800000</v>
       </c>
-      <c r="I9" s="42">
-        <f t="shared" ref="I9:I20" si="2">E9+F9</f>
+      <c r="J9" s="33">
+        <f t="shared" ref="J9:J20" si="2">E9+G9</f>
         <v>362</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="K9" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="47">
+      <c r="L9" s="38">
         <v>26</v>
       </c>
-      <c r="L9" s="47">
-        <f>K9*12</f>
+      <c r="M9" s="38">
+        <f>L9*12</f>
         <v>312</v>
       </c>
-      <c r="M9" s="46">
+      <c r="N9" s="37">
         <v>455000</v>
       </c>
-      <c r="N9" s="47">
-        <f t="shared" ref="N9:N20" si="3">L9*M9</f>
+      <c r="O9" s="38">
+        <f t="shared" ref="O9:O20" si="3">M9*N9</f>
         <v>141960000</v>
       </c>
-      <c r="O9" s="65">
-        <f t="shared" ref="O9:O20" si="4">I9-L9</f>
+      <c r="P9" s="50">
+        <f t="shared" ref="P9:P20" si="4">J9-M9</f>
         <v>50</v>
       </c>
-      <c r="P9" s="20">
+      <c r="Q9" s="20">
         <v>455000</v>
       </c>
-      <c r="Q9" s="66">
-        <f t="shared" ref="Q9:Q20" si="5">O9*P9</f>
+      <c r="R9" s="51">
+        <f t="shared" ref="R9:R20" si="5">P9*Q9</f>
         <v>22750000</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="40" t="s">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="32">
         <v>20</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="32">
         <f>8*24</f>
         <v>192</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="32">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50">
+      <c r="F10" s="32"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41">
         <v>235000</v>
       </c>
-      <c r="H10" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I10" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="33">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="K10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="47">
+      <c r="L10" s="38">
         <v>8</v>
       </c>
-      <c r="L10" s="47">
-        <f>K10*24</f>
+      <c r="M10" s="38">
+        <f>L10*24</f>
         <v>192</v>
       </c>
-      <c r="M10" s="46">
+      <c r="N10" s="37">
         <v>235000</v>
       </c>
-      <c r="N10" s="47">
+      <c r="O10" s="38">
         <f t="shared" si="3"/>
         <v>45120000</v>
       </c>
-      <c r="O10" s="65">
+      <c r="P10" s="50">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="P10" s="20">
+      <c r="Q10" s="20">
         <v>235000</v>
       </c>
-      <c r="Q10" s="66">
+      <c r="R10" s="51">
         <f t="shared" si="5"/>
         <v>4700000</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>25</v>
+      </c>
+      <c r="G11" s="40">
         <f>30*12</f>
         <v>360</v>
       </c>
-      <c r="G11" s="50">
+      <c r="H11" s="41">
         <v>465000</v>
       </c>
-      <c r="H11" s="51">
+      <c r="I11" s="42">
         <f t="shared" si="1"/>
         <v>167400000</v>
       </c>
-      <c r="I11" s="42">
+      <c r="J11" s="33">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="K11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="47">
+      <c r="L11" s="38">
         <v>26</v>
       </c>
-      <c r="L11" s="47">
-        <f>K11*12</f>
+      <c r="M11" s="38">
+        <f>L11*12</f>
         <v>312</v>
       </c>
-      <c r="M11" s="46">
+      <c r="N11" s="37">
         <v>465000</v>
       </c>
-      <c r="N11" s="47">
+      <c r="O11" s="38">
         <f t="shared" si="3"/>
         <v>145080000</v>
       </c>
-      <c r="O11" s="65">
+      <c r="P11" s="50">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="P11" s="20">
+      <c r="Q11" s="20">
         <v>465000</v>
       </c>
-      <c r="Q11" s="66">
+      <c r="R11" s="51">
         <f t="shared" si="5"/>
         <v>22320000</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41">
         <v>245000</v>
       </c>
-      <c r="H12" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I12" s="42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37">
         <v>245000</v>
       </c>
-      <c r="N12" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
+      <c r="O12" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
         <v>245000</v>
       </c>
-      <c r="Q12" s="66">
+      <c r="R12" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="32">
         <v>22</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="32">
         <f>14*12</f>
         <v>168</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="32">
+        <v>15</v>
+      </c>
+      <c r="G13" s="40">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="G13" s="50">
+      <c r="H13" s="41">
         <v>475000</v>
       </c>
-      <c r="H13" s="51">
+      <c r="I13" s="42">
         <f t="shared" si="1"/>
         <v>85500000</v>
       </c>
-      <c r="I13" s="42">
+      <c r="J13" s="33">
         <f t="shared" si="2"/>
         <v>370</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="K13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="47">
+      <c r="L13" s="38">
         <v>27</v>
       </c>
-      <c r="L13" s="47">
-        <f>K13*12</f>
+      <c r="M13" s="38">
+        <f>L13*12</f>
         <v>324</v>
       </c>
-      <c r="M13" s="46">
+      <c r="N13" s="37">
         <v>475000</v>
       </c>
-      <c r="N13" s="47">
+      <c r="O13" s="38">
         <f t="shared" si="3"/>
         <v>153900000</v>
       </c>
-      <c r="O13" s="65">
+      <c r="P13" s="50">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="P13" s="20">
+      <c r="Q13" s="20">
         <v>475000</v>
       </c>
-      <c r="Q13" s="66">
+      <c r="R13" s="51">
         <f t="shared" si="5"/>
         <v>21850000</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="32">
         <v>24</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="32">
         <v>48</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50">
+      <c r="F14" s="32"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41">
         <v>255000</v>
       </c>
-      <c r="H14" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I14" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="33">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="K14" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="47">
+      <c r="L14" s="38">
         <v>3</v>
       </c>
-      <c r="L14" s="47">
-        <f>K14*24</f>
+      <c r="M14" s="38">
+        <f>L14*24</f>
         <v>72</v>
       </c>
-      <c r="M14" s="46">
+      <c r="N14" s="37">
         <v>255000</v>
       </c>
-      <c r="N14" s="47">
+      <c r="O14" s="38">
         <f t="shared" si="3"/>
         <v>18360000</v>
       </c>
-      <c r="O14" s="65">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
+      <c r="P14" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
         <v>255000</v>
       </c>
-      <c r="Q14" s="66">
+      <c r="R14" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="32">
         <v>17</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="32">
         <f>8*12</f>
         <v>96</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="32">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="32">
+        <v>15</v>
+      </c>
+      <c r="G15" s="40">
         <f>15*12</f>
         <v>180</v>
       </c>
-      <c r="G15" s="50">
+      <c r="H15" s="41">
         <v>485000</v>
       </c>
-      <c r="H15" s="51">
+      <c r="I15" s="42">
         <f t="shared" si="1"/>
         <v>87300000</v>
       </c>
-      <c r="I15" s="42">
+      <c r="J15" s="33">
         <f t="shared" si="2"/>
         <v>293</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="K15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="47">
+      <c r="L15" s="38">
         <v>23</v>
       </c>
-      <c r="L15" s="47">
-        <f>K15*12</f>
+      <c r="M15" s="38">
+        <f>L15*12</f>
         <v>276</v>
       </c>
-      <c r="M15" s="46">
+      <c r="N15" s="37">
         <v>485000</v>
       </c>
-      <c r="N15" s="47">
+      <c r="O15" s="38">
         <f t="shared" si="3"/>
         <v>133860000</v>
       </c>
-      <c r="O15" s="65">
+      <c r="P15" s="50">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="P15" s="20">
+      <c r="Q15" s="20">
         <v>485000</v>
       </c>
-      <c r="Q15" s="66">
+      <c r="R15" s="51">
         <f t="shared" si="5"/>
         <v>8245000</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="32">
         <v>4</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="32">
         <v>24</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50">
+      <c r="F16" s="32"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41">
         <v>255000</v>
       </c>
-      <c r="H16" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I16" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="33">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="J16" s="42" t="s">
+      <c r="K16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="46">
+      <c r="L16" s="38"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37">
         <v>255000</v>
       </c>
-      <c r="N16" s="47">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="65">
+      <c r="O16" s="38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="50">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="P16" s="20">
+      <c r="Q16" s="20">
         <v>255000</v>
       </c>
-      <c r="Q16" s="66">
+      <c r="R16" s="51">
         <f t="shared" si="5"/>
         <v>7140000</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="49">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="32">
+        <v>15</v>
+      </c>
+      <c r="G17" s="40">
         <f>20*12</f>
         <v>240</v>
       </c>
-      <c r="G17" s="50">
+      <c r="H17" s="41">
         <v>485000</v>
       </c>
-      <c r="H17" s="51">
+      <c r="I17" s="42">
         <f t="shared" si="1"/>
         <v>116400000</v>
       </c>
-      <c r="I17" s="42">
+      <c r="J17" s="33">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="K17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="47">
+      <c r="L17" s="38">
         <v>15</v>
       </c>
-      <c r="L17" s="47">
-        <f>K17*12</f>
+      <c r="M17" s="38">
+        <f>L17*12</f>
         <v>180</v>
       </c>
-      <c r="M17" s="46">
+      <c r="N17" s="37">
         <v>485000</v>
       </c>
-      <c r="N17" s="47">
+      <c r="O17" s="38">
         <f t="shared" si="3"/>
         <v>87300000</v>
       </c>
-      <c r="O17" s="65">
+      <c r="P17" s="50">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="P17" s="20">
+      <c r="Q17" s="20">
         <v>485000</v>
       </c>
-      <c r="Q17" s="66">
+      <c r="R17" s="51">
         <f t="shared" si="5"/>
         <v>29100000</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="32">
         <f>64+28</f>
         <v>92</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="32">
         <v>12</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50">
+      <c r="F18" s="32"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41">
         <v>455000</v>
       </c>
-      <c r="H18" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="33">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="K18" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="47">
+      <c r="L18" s="38">
         <v>7</v>
       </c>
-      <c r="L18" s="47">
-        <f>K18*12</f>
+      <c r="M18" s="38">
+        <f>L18*12</f>
         <v>84</v>
       </c>
-      <c r="M18" s="46">
+      <c r="N18" s="37">
         <v>455000</v>
       </c>
-      <c r="N18" s="47">
+      <c r="O18" s="38">
         <f t="shared" si="3"/>
         <v>38220000</v>
       </c>
-      <c r="O18" s="65">
+      <c r="P18" s="50">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="P18" s="20">
+      <c r="Q18" s="20">
         <v>455000</v>
       </c>
-      <c r="Q18" s="66">
+      <c r="R18" s="51">
         <f t="shared" si="5"/>
         <v>9100000</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="32">
         <v>191</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="32">
         <f>3*24</f>
         <v>72</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="32">
         <f t="shared" si="0"/>
         <v>263</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50">
+      <c r="F19" s="32"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41">
         <v>550000</v>
       </c>
-      <c r="H19" s="51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I19" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="33">
         <f t="shared" si="2"/>
         <v>263</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="K19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="47">
+      <c r="L19" s="38">
         <v>9</v>
       </c>
-      <c r="L19" s="47">
-        <f>K19*24</f>
+      <c r="M19" s="38">
+        <f>L19*24</f>
         <v>216</v>
       </c>
-      <c r="M19" s="46">
+      <c r="N19" s="37">
         <v>550000</v>
       </c>
-      <c r="N19" s="47">
+      <c r="O19" s="38">
         <f t="shared" si="3"/>
         <v>118800000</v>
       </c>
-      <c r="O19" s="65">
+      <c r="P19" s="50">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="P19" s="20">
+      <c r="Q19" s="20">
         <v>550000</v>
       </c>
-      <c r="Q19" s="66">
+      <c r="R19" s="51">
         <f t="shared" si="5"/>
         <v>25850000</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="32">
         <v>21</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="32">
         <f>9*12</f>
         <v>108</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="32">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="32">
+        <v>10</v>
+      </c>
+      <c r="G20" s="40">
         <f>10*12</f>
         <v>120</v>
       </c>
-      <c r="G20" s="50">
+      <c r="H20" s="41">
         <v>455000</v>
       </c>
-      <c r="H20" s="51">
+      <c r="I20" s="42">
         <f t="shared" si="1"/>
         <v>54600000</v>
       </c>
-      <c r="I20" s="42">
+      <c r="J20" s="33">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="K20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="47">
+      <c r="L20" s="38">
         <v>19</v>
       </c>
-      <c r="L20" s="47">
-        <f>K20*12</f>
+      <c r="M20" s="38">
+        <f>L20*12</f>
         <v>228</v>
       </c>
-      <c r="M20" s="46">
+      <c r="N20" s="37">
         <v>455000</v>
       </c>
-      <c r="N20" s="47">
+      <c r="O20" s="38">
         <f t="shared" si="3"/>
         <v>103740000</v>
       </c>
-      <c r="O20" s="65">
+      <c r="P20" s="50">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="P20" s="20">
+      <c r="Q20" s="20">
         <v>455000</v>
       </c>
-      <c r="Q20" s="66">
+      <c r="R20" s="51">
         <f t="shared" si="5"/>
         <v>9555000</v>
       </c>
     </row>
-    <row r="21" spans="2:17" s="58" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="54"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="55">
+    <row r="21" spans="2:18" s="47" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="43"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34">
         <f>SUM(F8:F20)</f>
+        <v>115</v>
+      </c>
+      <c r="G21" s="44">
+        <f>SUM(G8:G20)</f>
         <v>1680</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56">
-        <f>SUM(H8:H20)</f>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45">
+        <f>SUM(I8:I20)</f>
         <v>729000000</v>
       </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="61">
-        <f>SUM(N8:N20)</f>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49">
+        <f>SUM(O8:O20)</f>
         <v>1051140000</v>
       </c>
-      <c r="O21" s="67">
-        <f>SUM(O8:O20)</f>
+      <c r="P21" s="52">
+        <f>SUM(P8:P20)</f>
         <v>378</v>
       </c>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="67">
-        <f>SUM(Q8:Q20)</f>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="52">
+        <f>SUM(R8:R20)</f>
         <v>165335000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I23" s="69">
+        <f>G8*H8+F9*12*H9+F11*12*H11+G13*H13+G15*H15+F17*12*H17+G20*H20</f>
+        <v>644700000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="I24" s="69">
+        <f>F21*1650</f>
+        <v>189750</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="P6:R6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
